--- a/Macro Data Info.xlsx
+++ b/Macro Data Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thkim010325/Desktop/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4F713-30B4-2741-93FB-A6AA80B30F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE283725-8E20-D243-9319-C857F01CE488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15920" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
   <si>
     <t>Productivity Growth</t>
   </si>
@@ -243,6 +243,42 @@
   </si>
   <si>
     <t>TOTLL</t>
+  </si>
+  <si>
+    <t>Federal debt held by public</t>
+  </si>
+  <si>
+    <t>FYGFDPUN</t>
+  </si>
+  <si>
+    <t>Gov Fiscal Condition</t>
+  </si>
+  <si>
+    <t>GOv Fiscal Condition</t>
+  </si>
+  <si>
+    <t>Federal budget deficit</t>
+  </si>
+  <si>
+    <t>MTSDS133FMS</t>
+  </si>
+  <si>
+    <t>FYFRGDA188S</t>
+  </si>
+  <si>
+    <t>Total Federal Receipts (% GDP)</t>
+  </si>
+  <si>
+    <t>Total Federal Receipts as % of GDP (tax revenue)</t>
+  </si>
+  <si>
+    <t>FYONGDA188S</t>
+  </si>
+  <si>
+    <t>Total Federal Outlays as % of GDP (gov spending)</t>
+  </si>
+  <si>
+    <t>Total Federal Outlays as % of GDP</t>
   </si>
 </sst>
 </file>
@@ -643,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E8CEE-57FE-BF4E-80D7-E394BDE7DF68}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1247,6 +1283,122 @@
       </c>
       <c r="I20" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1970</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1980</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1929</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1929</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Macro Data Info.xlsx
+++ b/Macro Data Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thkim010325/Desktop/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE283725-8E20-D243-9319-C857F01CE488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F63FD3-E2B5-DF4F-8238-8A20697B9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15920" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Macro Data Info.xlsx
+++ b/Macro Data Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thkim010325/Desktop/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F63FD3-E2B5-DF4F-8238-8A20697B9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A94CD74-1E08-3446-BF3B-4CD2E07FF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15920" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="91">
   <si>
     <t>Productivity Growth</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Gov Fiscal Condition</t>
   </si>
   <si>
-    <t>GOv Fiscal Condition</t>
-  </si>
-  <si>
     <t>Federal budget deficit</t>
   </si>
   <si>
@@ -279,6 +276,39 @@
   </si>
   <si>
     <t>Total Federal Outlays as % of GDP</t>
+  </si>
+  <si>
+    <t>Monetary Response Capa</t>
+  </si>
+  <si>
+    <t>Fed BS Asset</t>
+  </si>
+  <si>
+    <t>WALCL</t>
+  </si>
+  <si>
+    <t>M2SL</t>
+  </si>
+  <si>
+    <t>M2 money supply</t>
+  </si>
+  <si>
+    <t>PCEPILFE</t>
+  </si>
+  <si>
+    <t>Core PCE</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>CPI Inflation</t>
+  </si>
+  <si>
+    <t>Core PCE (excluding food and energy) Inflation</t>
+  </si>
+  <si>
+    <t>CPI Inflation - public facing</t>
   </si>
 </sst>
 </file>
@@ -679,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E8CEE-57FE-BF4E-80D7-E394BDE7DF68}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -948,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -980,7 +1010,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1325,10 +1355,10 @@
         <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>21</v>
@@ -1340,7 +1370,7 @@
         <v>1980</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1351,13 +1381,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>21</v>
@@ -1369,7 +1399,7 @@
         <v>1929</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1380,13 +1410,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>21</v>
@@ -1398,23 +1428,136 @@
         <v>1929</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1959</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1959</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1947</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A40" xr:uid="{E2734039-C67B-5642-AD1A-1DBE5971D62E}">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G40" xr:uid="{573A02D1-80C1-4F4E-BE4F-36A15C516F2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40" xr:uid="{573A02D1-80C1-4F4E-BE4F-36A15C516F2E}">
       <formula1>$L$6:$L$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{14EF1C0D-624B-5B44-BEF4-66F3210BA04D}">
       <formula1>$L$12:$L$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{C5036B87-714B-6240-8AE0-43E5BEDFCF43}">
-      <formula1>$L$6:$L$10</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Macro Data Info.xlsx
+++ b/Macro Data Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thkim010325/Desktop/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A94CD74-1E08-3446-BF3B-4CD2E07FF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D9EB8-4F9A-964B-A500-C22C3FD128D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15920" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
   </bookViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E8CEE-57FE-BF4E-80D7-E394BDE7DF68}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Macro Data Info.xlsx
+++ b/Macro Data Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thkim010325/Desktop/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D9EB8-4F9A-964B-A500-C22C3FD128D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155130A-F660-564F-9678-E2BA41430089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15920" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="15860" xr2:uid="{7484078C-E976-554F-A08C-18F3521256ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>Productivity Growth</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Total Federal Outlays as % of GDP</t>
   </si>
   <si>
-    <t>Monetary Response Capa</t>
-  </si>
-  <si>
     <t>Fed BS Asset</t>
   </si>
   <si>
@@ -309,6 +306,18 @@
   </si>
   <si>
     <t>CPI Inflation - public facing</t>
+  </si>
+  <si>
+    <t>EQ1</t>
+  </si>
+  <si>
+    <t>EQ2</t>
+  </si>
+  <si>
+    <t>EQ3</t>
+  </si>
+  <si>
+    <t>Monetary Response Capacity</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -373,6 +382,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -709,15 +722,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E8CEE-57FE-BF4E-80D7-E394BDE7DF68}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="5" width="45.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
@@ -1198,8 +1212,11 @@
       <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1244,11 @@
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="L17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1256,8 +1276,11 @@
       <c r="I18" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1439,13 +1462,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
@@ -1457,10 +1480,10 @@
         <v>2002</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1468,13 +1491,13 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>21</v>
@@ -1486,10 +1509,10 @@
         <v>1959</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,13 +1520,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>21</v>
@@ -1515,10 +1538,10 @@
         <v>1959</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1526,13 +1549,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>21</v>
@@ -1544,19 +1567,78 @@
         <v>1947</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A40" xr:uid="{E2734039-C67B-5642-AD1A-1DBE5971D62E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{E2734039-C67B-5642-AD1A-1DBE5971D62E}">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40" xr:uid="{573A02D1-80C1-4F4E-BE4F-36A15C516F2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G60" xr:uid="{573A02D1-80C1-4F4E-BE4F-36A15C516F2E}">
       <formula1>$L$6:$L$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{14EF1C0D-624B-5B44-BEF4-66F3210BA04D}">
-      <formula1>$L$12:$L$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B60" xr:uid="{C57A1F88-04CB-3C4A-8F24-04DD3889CEBD}">
+      <formula1>$L$12:$L$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
